--- a/book.xlsx
+++ b/book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenningBragge\PycharmProjects\woo_mf_updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA157EB2-E057-4B93-9CBD-3F5B3646A026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A07ABC-7965-4CCF-956F-45584DA82910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9010" yWindow="830" windowWidth="28800" windowHeight="15460" xr2:uid="{F1EFC9A4-B52C-47D5-A6AB-20B95A969ABB}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="23040" windowHeight="12204" xr2:uid="{F1EFC9A4-B52C-47D5-A6AB-20B95A969ABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>col1</t>
-  </si>
-  <si>
-    <t>col2</t>
-  </si>
-  <si>
-    <t>col3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>regular_price</t>
+  </si>
+  <si>
+    <t>sales_price</t>
+  </si>
+  <si>
+    <t>gtin13</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>1234567890123</t>
   </si>
 </sst>
 </file>
@@ -78,8 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,59 +417,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0B2B86-6161-48D0-BA0B-4CE3D72CBA32}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+        <v>36684</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>